--- a/biology/Botanique/Petunia_axillaris/Petunia_axillaris.xlsx
+++ b/biology/Botanique/Petunia_axillaris/Petunia_axillaris.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> Petunia axillaris est une espèce de plante de la famille des Solanaceae et du genre Petunia. Elle est indigène à la région tempérée de l'Amérique du Sud. La plante a des 3-7 cm fleurs blanches qui sont les seules fleurs blanches du genre Petunia[1]. C'est l'une des espèces de l'hybride P. axillaris x P. integrifolia qui fait pousser souvent dans les jardins[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Petunia axillaris est une espèce de plante de la famille des Solanaceae et du genre Petunia. Elle est indigène à la région tempérée de l'Amérique du Sud. La plante a des 3-7 cm fleurs blanches qui sont les seules fleurs blanches du genre Petunia. C'est l'une des espèces de l'hybride P. axillaris x P. integrifolia qui fait pousser souvent dans les jardins.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">P. axillaris a trois sous-espèces : P. a. axillaris, P. a. parodii, et P. a. subandina. P. a. axillaris et P. a. parodii sont trouvés sur la Pampa. Par contre, P. a. subandina est indigène sur les hautes terres près de la cordillère des Andes[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">P. axillaris a trois sous-espèces : P. a. axillaris, P. a. parodii, et P. a. subandina. P. a. axillaris et P. a. parodii sont trouvés sur la Pampa. Par contre, P. a. subandina est indigène sur les hautes terres près de la cordillère des Andes.
 </t>
         </is>
       </c>
